--- a/noshows/noshows-graphics_DTs.xlsx
+++ b/noshows/noshows-graphics_DTs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="min_num_leaf" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     </textPr>
   </connection>
   <connection id="2" name="min_leaf1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_leaf.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_leaf.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
     </textPr>
   </connection>
   <connection id="3" name="min_leaf11" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_leaf.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_leaf.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -108,7 +108,7 @@
     </textPr>
   </connection>
   <connection id="6" name="min_nodes_leaf1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_nodes_leaf.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_nodes_leaf.csv" decimal="," thousands=" ">
       <textFields count="30">
         <textField/>
         <textField/>
@@ -144,7 +144,7 @@
     </textPr>
   </connection>
   <connection id="7" name="min_nodes1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_nodes.csv" decimal="," thousands=" ">
+    <textPr fileType="mac" sourceFile="/Users/pmorvalho/Dropbox/1ºSemestre/SAD/Project/SAD_P2/noshows/min_nodes.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -383,11 +383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1475348544"/>
-        <c:axId val="1491293104"/>
+        <c:axId val="-2140648848"/>
+        <c:axId val="-2104880768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1475348544"/>
+        <c:axId val="-2140648848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,6 +468,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -504,12 +505,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491293104"/>
+        <c:crossAx val="-2104880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1491293104"/>
+        <c:axId val="-2104880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -623,7 +624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475348544"/>
+        <c:crossAx val="-2140648848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -841,11 +842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1491145600"/>
-        <c:axId val="1491148720"/>
+        <c:axId val="-2140643264"/>
+        <c:axId val="-2140639872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1491145600"/>
+        <c:axId val="-2140643264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,12 +962,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491148720"/>
+        <c:crossAx val="-2140639872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1491148720"/>
+        <c:axId val="-2140639872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -1079,7 +1080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491145600"/>
+        <c:crossAx val="-2140643264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1655,11 +1656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1597119968"/>
-        <c:axId val="1619969648"/>
+        <c:axId val="-2139387552"/>
+        <c:axId val="-2139383920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1597119968"/>
+        <c:axId val="-2139387552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,12 +1773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1619969648"/>
+        <c:crossAx val="-2139383920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1619969648"/>
+        <c:axId val="-2139383920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -1890,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1597119968"/>
+        <c:crossAx val="-2139387552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3643,9 +3644,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -3680,12 +3681,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3714,15 +3715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3745,11 +3746,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_leaf_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3757,19 +3758,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="min_nodes_leaf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4037,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,7 +4126,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4226,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
